--- a/testFiles/masterfile test.xlsx
+++ b/testFiles/masterfile test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="15" documentId="8_{F7BBB395-E0FF-4C86-AD31-B007EE0A76BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42FC9EEB-EF96-45AC-A018-9778317FABB1}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="1035" windowWidth="13350" windowHeight="14325" xr2:uid="{1428E124-F7C9-41E8-82F8-E6BC26DE098D}"/>
+    <workbookView xWindow="720" yWindow="495" windowWidth="13350" windowHeight="14325" xr2:uid="{1428E124-F7C9-41E8-82F8-E6BC26DE098D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25810,8 +25810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009F0FBC-2B48-45AC-91ED-EFF65C1B6B3E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26124,7 +26124,7 @@
         <v>tnt reminder start discount. 38£ for stella £80 san mig + bbg</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -26390,7 +26390,7 @@
         <v>the rest are guest lines and transition (including their own brands- brewery attached to pub)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>46</v>
       </c>
